--- a/psy504-schedule.xlsx
+++ b/psy504-schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasongeller/Documents/psy504-advanced_stats/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasongeller/Documents/psy504-advanced-stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266AC48B-EF8E-EC41-990F-0BDCA382768A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E33431-6E6C-8B4A-88D7-B3927796CFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="740" windowWidth="27240" windowHeight="18380" xr2:uid="{97F9CCAF-800E-D445-8631-D17D6531A2CB}"/>
+    <workbookView xWindow="11280" yWindow="740" windowWidth="27240" windowHeight="18380" xr2:uid="{97F9CCAF-800E-D445-8631-D17D6531A2CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">Week </t>
   </si>
@@ -44,9 +44,6 @@
     <t>Topic</t>
   </si>
   <si>
-    <t>Readings</t>
-  </si>
-  <si>
     <t>Robust measures</t>
   </si>
   <si>
@@ -65,12 +62,6 @@
     <t>Meta-analysis</t>
   </si>
   <si>
-    <t>Non-Gaussian Statistics: Ordinal Regression</t>
-  </si>
-  <si>
-    <t>Non-Gaussian Statistics: Possion Regression</t>
-  </si>
-  <si>
     <t>Non-Gaussian Statistics: Multinomial regression</t>
   </si>
   <si>
@@ -83,9 +74,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Data cleaning in R</t>
-  </si>
-  <si>
     <t>01-30-23/02-01-23</t>
   </si>
   <si>
@@ -132,13 +120,31 @@
   </si>
   <si>
     <t>Spring Break</t>
+  </si>
+  <si>
+    <t>Non-Gaussian Statistics: Ordinal Regression/Possion</t>
+  </si>
+  <si>
+    <t>Tidying data</t>
+  </si>
+  <si>
+    <t>Detail</t>
+  </si>
+  <si>
+    <t>[{{&lt; fa book &gt;}}](/schedule/01-week.qmd)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lecture </t>
+  </si>
+  <si>
+    <t>[{{&lt; fa book &gt;}}](/schedule/03-week.qmd)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -152,6 +158,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292F"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -174,9 +186,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D2A61C-BD61-EA46-9BDE-6933B6356EAC}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -504,180 +517,183 @@
     <col min="4" max="4" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/psy504-schedule.xlsx
+++ b/psy504-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasongeller/Documents/psy504-advanced-stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E33431-6E6C-8B4A-88D7-B3927796CFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2026EB-1324-1544-AF54-25EDE0016495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11280" yWindow="740" windowWidth="27240" windowHeight="18380" xr2:uid="{97F9CCAF-800E-D445-8631-D17D6531A2CB}"/>
+    <workbookView xWindow="2280" yWindow="860" windowWidth="27240" windowHeight="18380" xr2:uid="{97F9CCAF-800E-D445-8631-D17D6531A2CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t xml:space="preserve">Week </t>
   </si>
@@ -507,7 +507,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -572,6 +572,9 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">

--- a/psy504-schedule.xlsx
+++ b/psy504-schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasongeller/Documents/psy504-advanced-stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2026EB-1324-1544-AF54-25EDE0016495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD7FE37-5823-BF44-AFB3-9408D4FEFA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="860" windowWidth="27240" windowHeight="18380" xr2:uid="{97F9CCAF-800E-D445-8631-D17D6531A2CB}"/>
+    <workbookView xWindow="3000" yWindow="740" windowWidth="27240" windowHeight="18380" xr2:uid="{97F9CCAF-800E-D445-8631-D17D6531A2CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,17 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
-  <si>
-    <t xml:space="preserve">Week </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Topic</t>
   </si>
   <si>
-    <t>Robust measures</t>
-  </si>
-  <si>
     <t>Missing data</t>
   </si>
   <si>
@@ -62,82 +56,91 @@
     <t>Meta-analysis</t>
   </si>
   <si>
-    <t>Non-Gaussian Statistics: Multinomial regression</t>
-  </si>
-  <si>
     <t>Path modeling/SEM</t>
   </si>
   <si>
-    <t>Clustering: k-means/hierarichal clustering</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>01-30-23/02-01-23</t>
-  </si>
-  <si>
-    <t>02-06-23/02-08-23</t>
-  </si>
-  <si>
-    <t>02-13-23/02-15-23</t>
-  </si>
-  <si>
-    <t>02-20-23/02-22-23</t>
-  </si>
-  <si>
-    <t>02-27-23/03-01-23</t>
-  </si>
-  <si>
-    <t>03-06-23/03-08-23</t>
-  </si>
-  <si>
-    <t>03-20-23/03-22-23</t>
-  </si>
-  <si>
-    <t>03-27-23/03-29-23</t>
-  </si>
-  <si>
-    <t>04-03-23/04-05-23</t>
-  </si>
-  <si>
-    <t>04-10-23/04-12-23</t>
-  </si>
-  <si>
-    <t>04-17-23/04-19-23</t>
-  </si>
-  <si>
-    <t>04-24-23/04-26-23</t>
-  </si>
-  <si>
     <t>Reading Week</t>
   </si>
   <si>
     <t>Finals</t>
   </si>
   <si>
-    <t xml:space="preserve">Growth Curve Modeling </t>
-  </si>
-  <si>
     <t>Spring Break</t>
   </si>
   <si>
-    <t>Non-Gaussian Statistics: Ordinal Regression/Possion</t>
-  </si>
-  <si>
-    <t>Tidying data</t>
-  </si>
-  <si>
-    <t>Detail</t>
-  </si>
-  <si>
-    <t>[{{&lt; fa book &gt;}}](/schedule/01-week.qmd)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lecture </t>
-  </si>
-  <si>
-    <t>[{{&lt; fa book &gt;}}](/schedule/03-week.qmd)</t>
+    <t>Week </t>
+  </si>
+  <si>
+    <t>Robust methods: bootstrapping and permutation</t>
+  </si>
+  <si>
+    <t>[{{&lt;   fa book &gt;}}](/schedule/03-week.qmd)</t>
+  </si>
+  <si>
+    <t>Ordinal and Poisson regression</t>
+  </si>
+  <si>
+    <t>Clustering: K-means/hierarichal clustering</t>
+  </si>
+  <si>
+    <t>Multilevel modeling</t>
+  </si>
+  <si>
+    <t>Growth curve modeling (GCA)</t>
+  </si>
+  <si>
+    <t>[{{&lt;   fa book &gt;}}](/schedule/02-week.qmd)</t>
+  </si>
+  <si>
+    <t>Lab 1</t>
+  </si>
+  <si>
+    <t>Lab 2</t>
+  </si>
+  <si>
+    <t>Lab 3</t>
+  </si>
+  <si>
+    <t>Lab 5</t>
+  </si>
+  <si>
+    <t>Lab 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab 6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab 7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab 8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab 9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab 10 </t>
+  </si>
+  <si>
+    <t>Lab 11</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleaning data </t>
+  </si>
+  <si>
+    <t>Class Materials</t>
+  </si>
+  <si>
+    <t>Class PDFs</t>
+  </si>
+  <si>
+    <t>Peer Leader</t>
   </si>
 </sst>
 </file>
@@ -153,17 +156,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="12"/>
-      <color rgb="FF24292F"/>
-      <name val="Menlo"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -174,7 +179,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -182,16 +187,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -208,7 +255,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -496,7 +543,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -504,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D2A61C-BD61-EA46-9BDE-6933B6356EAC}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -517,189 +564,382 @@
     <col min="4" max="4" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>44956</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="7">
+        <v>44958</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7">
+        <v>44963</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="7">
+        <v>44965</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7">
+        <v>44970</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="7">
+        <v>44972</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7">
+        <v>44977</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="7">
+        <v>44979</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7">
+        <v>44984</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="7">
+        <v>44986</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7">
+        <v>44991</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="7">
+        <v>44993</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>8</v>
+      </c>
+      <c r="B17" s="7">
+        <v>45005</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="7">
+        <v>45007</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>9</v>
+      </c>
+      <c r="B19" s="7">
+        <v>45012</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="7">
+        <v>45014</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>10</v>
+      </c>
+      <c r="B21" s="7">
+        <v>45019</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="7">
+        <v>45021</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B23" s="7">
+        <v>45026</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="7">
+        <v>45028</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B25" s="7">
+        <v>45033</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="7">
+        <v>45035</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>13</v>
+      </c>
+      <c r="B27" s="7">
+        <v>45040</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="7">
+        <v>45042</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B31" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1" display="file:///schedule/03-week.qmd" xr:uid="{99EC630A-C0AA-6D4A-A58A-6F04FE0432AC}"/>
+    <hyperlink ref="D7" r:id="rId2" display="file:///schedule/01-week.qmd" xr:uid="{FC68014C-6B98-ED4F-A81E-A45835A50732}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/psy504-schedule.xlsx
+++ b/psy504-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasongeller/Documents/psy504-advanced-stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD7FE37-5823-BF44-AFB3-9408D4FEFA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223CC49B-71FC-4446-909B-FE5F0D1AE63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="740" windowWidth="27240" windowHeight="18380" xr2:uid="{97F9CCAF-800E-D445-8631-D17D6531A2CB}"/>
+    <workbookView xWindow="6680" yWindow="960" windowWidth="27240" windowHeight="18380" xr2:uid="{97F9CCAF-800E-D445-8631-D17D6531A2CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>Topic</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Bayesian analysis</t>
   </si>
   <si>
-    <t>Meta-analysis</t>
-  </si>
-  <si>
     <t>Path modeling/SEM</t>
   </si>
   <si>
@@ -77,12 +74,6 @@
     <t>Robust methods: bootstrapping and permutation</t>
   </si>
   <si>
-    <t>[{{&lt;   fa book &gt;}}](/schedule/03-week.qmd)</t>
-  </si>
-  <si>
-    <t>Ordinal and Poisson regression</t>
-  </si>
-  <si>
     <t>Clustering: K-means/hierarichal clustering</t>
   </si>
   <si>
@@ -92,9 +83,6 @@
     <t>Growth curve modeling (GCA)</t>
   </si>
   <si>
-    <t>[{{&lt;   fa book &gt;}}](/schedule/02-week.qmd)</t>
-  </si>
-  <si>
     <t>Lab 1</t>
   </si>
   <si>
@@ -122,32 +110,56 @@
     <t xml:space="preserve">Lab 9 </t>
   </si>
   <si>
-    <t xml:space="preserve">Lab 10 </t>
-  </si>
-  <si>
-    <t>Lab 11</t>
-  </si>
-  <si>
     <t>Introduction</t>
   </si>
   <si>
     <t xml:space="preserve">Cleaning data </t>
   </si>
   <si>
-    <t>Class Materials</t>
-  </si>
-  <si>
-    <t>Class PDFs</t>
-  </si>
-  <si>
-    <t>Peer Leader</t>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Labs</t>
+  </si>
+  <si>
+    <t>Poisson regression</t>
+  </si>
+  <si>
+    <t>Ordinal Regression</t>
+  </si>
+  <si>
+    <t>[{{&lt;    fa book-open-reader &gt;}}](/schedule/01-week.qmd)</t>
+  </si>
+  <si>
+    <t>[{{&lt;    fa book-open-reader &gt;}}](/schedule/02-week.qmd)</t>
+  </si>
+  <si>
+    <t>[{{&lt;    fa book-open-reader &gt;}}](/schedule/03-week.qmd)</t>
+  </si>
+  <si>
+    <t>[{{&lt;    fa book-open-reader &gt;}}](/schedule/04-week.qmd)</t>
+  </si>
+  <si>
+    <t>[{{&lt;    fa book-open-reader &gt;}}](/schedule/05-week.qmd)</t>
+  </si>
+  <si>
+    <t>[{{&lt;    fa book-open-reader &gt;}}](/schedule/06-week.qmd)</t>
+  </si>
+  <si>
+    <t>{{&lt; fa pen-ruler &gt;}}</t>
+  </si>
+  <si>
+    <t>{{&lt; fa laptop-code &gt;}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -169,6 +181,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292F"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -210,7 +228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -227,15 +245,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -551,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D2A61C-BD61-EA46-9BDE-6933B6356EAC}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -566,22 +579,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -595,350 +608,407 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>44956</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>44958</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="E4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>44963</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>44965</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="1"/>
+      <c r="F6" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>44970</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>44972</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="1"/>
+      <c r="F8" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>4</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>44977</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>44979</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F10" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>44984</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>44986</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F12" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>6</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>44991</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>44993</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
+      <c r="F14" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+    <row r="16" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>8</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B16" s="6">
         <v>45005</v>
       </c>
+      <c r="C16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="6">
+        <v>45007</v>
+      </c>
       <c r="C17" s="5" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="7">
-        <v>45007</v>
+      <c r="F17" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>9</v>
+      </c>
+      <c r="B18" s="6">
+        <v>45012</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>9</v>
-      </c>
-      <c r="B19" s="7">
-        <v>45012</v>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="6">
+        <v>45014</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="7">
-        <v>45014</v>
+      <c r="F19" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>10</v>
+      </c>
+      <c r="B20" s="6">
+        <v>45019</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>10</v>
-      </c>
-      <c r="B21" s="7">
-        <v>45019</v>
+      <c r="E20" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="6">
+        <v>45021</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="7">
-        <v>45021</v>
+      <c r="F21" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>11</v>
+      </c>
+      <c r="B22" s="6">
+        <v>45026</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>11</v>
-      </c>
-      <c r="B23" s="7">
-        <v>45026</v>
+      <c r="E22" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="6">
+        <v>45028</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="7">
-        <v>45028</v>
+      <c r="F23" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>12</v>
+      </c>
+      <c r="B24" s="6">
+        <v>45033</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>12</v>
-      </c>
-      <c r="B25" s="7">
-        <v>45033</v>
+      <c r="E24" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="6">
+        <v>45035</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="7">
-        <v>45035</v>
+      <c r="F25" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>13</v>
+      </c>
+      <c r="B26" s="6">
+        <v>45040</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>13</v>
-      </c>
-      <c r="B27" s="7">
-        <v>45040</v>
+      <c r="E26" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="6">
+        <v>45042</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="7">
-        <v>45042</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="F27" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>14</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="5"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="6"/>
+      <c r="C29" s="5"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="6"/>
+      <c r="C30" s="5"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>15</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" display="file:///schedule/03-week.qmd" xr:uid="{99EC630A-C0AA-6D4A-A58A-6F04FE0432AC}"/>
     <hyperlink ref="D7" r:id="rId2" display="file:///schedule/01-week.qmd" xr:uid="{FC68014C-6B98-ED4F-A81E-A45835A50732}"/>
+    <hyperlink ref="D9" r:id="rId3" display="file:///schedule/03-week.qmd" xr:uid="{8B0143F5-632B-0F46-8BDB-0FFC791DF1D0}"/>
+    <hyperlink ref="D4" r:id="rId4" display="file:///schedule/03-week.qmd" xr:uid="{08A818DE-2934-AE4E-917D-C109B8E7DD6C}"/>
+    <hyperlink ref="D11" r:id="rId5" display="file:///schedule/03-week.qmd" xr:uid="{B7122DB2-585E-AC4D-87A6-662AF8BFB23F}"/>
+    <hyperlink ref="D13" r:id="rId6" display="file:///schedule/03-week.qmd" xr:uid="{62A4C5F5-5808-A14B-986E-B1AE25019C3F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/psy504-schedule.xlsx
+++ b/psy504-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasongeller/Documents/psy504-advanced-stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223CC49B-71FC-4446-909B-FE5F0D1AE63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FF707B-B4D6-0C4E-B7E7-BFC3F706119F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6680" yWindow="960" windowWidth="27240" windowHeight="18380" xr2:uid="{97F9CCAF-800E-D445-8631-D17D6531A2CB}"/>
+    <workbookView xWindow="1820" yWindow="740" windowWidth="27240" windowHeight="18380" xr2:uid="{97F9CCAF-800E-D445-8631-D17D6531A2CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>Topic</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Mediation</t>
   </si>
   <si>
-    <t>PCA</t>
-  </si>
-  <si>
     <t>Bayesian analysis</t>
   </si>
   <si>
@@ -74,15 +71,9 @@
     <t>Robust methods: bootstrapping and permutation</t>
   </si>
   <si>
-    <t>Clustering: K-means/hierarichal clustering</t>
-  </si>
-  <si>
     <t>Multilevel modeling</t>
   </si>
   <si>
-    <t>Growth curve modeling (GCA)</t>
-  </si>
-  <si>
     <t>Lab 1</t>
   </si>
   <si>
@@ -101,9 +92,6 @@
     <t xml:space="preserve">Lab 6 </t>
   </si>
   <si>
-    <t xml:space="preserve">Lab 7 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Lab 8 </t>
   </si>
   <si>
@@ -113,9 +101,6 @@
     <t>Introduction</t>
   </si>
   <si>
-    <t xml:space="preserve">Cleaning data </t>
-  </si>
-  <si>
     <t>Content</t>
   </si>
   <si>
@@ -128,9 +113,6 @@
     <t>Poisson regression</t>
   </si>
   <si>
-    <t>Ordinal Regression</t>
-  </si>
-  <si>
     <t>[{{&lt;    fa book-open-reader &gt;}}](/schedule/01-week.qmd)</t>
   </si>
   <si>
@@ -146,13 +128,49 @@
     <t>[{{&lt;    fa book-open-reader &gt;}}](/schedule/05-week.qmd)</t>
   </si>
   <si>
-    <t>[{{&lt;    fa book-open-reader &gt;}}](/schedule/06-week.qmd)</t>
-  </si>
-  <si>
     <t>{{&lt; fa pen-ruler &gt;}}</t>
   </si>
   <si>
     <t>{{&lt; fa laptop-code &gt;}}</t>
+  </si>
+  <si>
+    <t>Quarto: Blogging and Website</t>
+  </si>
+  <si>
+    <t>Polytomous Models:  multinomial regression</t>
+  </si>
+  <si>
+    <t>Lab 10</t>
+  </si>
+  <si>
+    <t>Lab 7</t>
+  </si>
+  <si>
+    <t>[{{&lt;    fa book-open-reader &gt;}}](/schedule/11-week.qmd)</t>
+  </si>
+  <si>
+    <t>Polytomous Models: ordinal Regression</t>
+  </si>
+  <si>
+    <t>[{{&lt;    fa book-open-reader &gt;}}](/schedule/08-week.qmd)</t>
+  </si>
+  <si>
+    <t>[{{&lt;    fa book-open-reader &gt;}}](/schedule/10-week.qmd)</t>
+  </si>
+  <si>
+    <t>[{{&lt;    fa book-open-reader &gt;}}](/schedule/12-week.qmd)</t>
+  </si>
+  <si>
+    <t>Unspervised Learning PCA</t>
+  </si>
+  <si>
+    <t>Unspervised Learning: Clustering</t>
+  </si>
+  <si>
+    <t>[{{&lt;    fa book-open-reader &gt;}}](/schedule/09-week.qmd)</t>
+  </si>
+  <si>
+    <t>[{{&lt;    fa book-open-reader &gt;}}](/schedule/05-02-week.qmd)</t>
   </si>
 </sst>
 </file>
@@ -564,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D2A61C-BD61-EA46-9BDE-6933B6356EAC}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -575,26 +593,27 @@
     <col min="1" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="24.1640625" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -612,7 +631,7 @@
         <v>44956</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -622,13 +641,13 @@
         <v>44958</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="E4" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F4" s="7"/>
     </row>
@@ -640,13 +659,13 @@
         <v>44963</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -655,12 +674,12 @@
         <v>44965</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="1"/>
       <c r="F6" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -674,10 +693,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -686,12 +705,12 @@
         <v>44972</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="1"/>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="59" customHeight="1" x14ac:dyDescent="0.2">
@@ -702,13 +721,13 @@
         <v>44977</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -717,12 +736,12 @@
         <v>44979</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -733,13 +752,13 @@
         <v>44984</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -748,12 +767,12 @@
         <v>44986</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -764,13 +783,13 @@
         <v>44991</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -779,12 +798,12 @@
         <v>44993</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -792,7 +811,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="4"/>
@@ -806,13 +825,13 @@
         <v>45005</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -821,15 +840,15 @@
         <v>45007</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>9</v>
       </c>
@@ -837,10 +856,14 @@
         <v>45012</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
@@ -848,12 +871,14 @@
         <v>45014</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="F19" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.2">
@@ -864,12 +889,12 @@
         <v>45019</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="7" t="s">
-        <v>38</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
@@ -877,15 +902,15 @@
         <v>45021</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>11</v>
       </c>
@@ -893,11 +918,13 @@
         <v>45026</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="E22" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -906,12 +933,12 @@
         <v>45028</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="38" customHeight="1" x14ac:dyDescent="0.2">
@@ -922,11 +949,13 @@
         <v>45033</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="E24" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -935,15 +964,15 @@
         <v>45035</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>13</v>
       </c>
@@ -951,11 +980,13 @@
         <v>45040</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E26" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -964,12 +995,12 @@
         <v>45042</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -977,22 +1008,23 @@
         <v>14</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>15</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
@@ -1000,6 +1032,17 @@
       <c r="C30" s="5"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C31" s="5"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C32" s="5"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1007,8 +1050,9 @@
     <hyperlink ref="D7" r:id="rId2" display="file:///schedule/01-week.qmd" xr:uid="{FC68014C-6B98-ED4F-A81E-A45835A50732}"/>
     <hyperlink ref="D9" r:id="rId3" display="file:///schedule/03-week.qmd" xr:uid="{8B0143F5-632B-0F46-8BDB-0FFC791DF1D0}"/>
     <hyperlink ref="D4" r:id="rId4" display="file:///schedule/03-week.qmd" xr:uid="{08A818DE-2934-AE4E-917D-C109B8E7DD6C}"/>
-    <hyperlink ref="D11" r:id="rId5" display="file:///schedule/03-week.qmd" xr:uid="{B7122DB2-585E-AC4D-87A6-662AF8BFB23F}"/>
-    <hyperlink ref="D13" r:id="rId6" display="file:///schedule/03-week.qmd" xr:uid="{62A4C5F5-5808-A14B-986E-B1AE25019C3F}"/>
+    <hyperlink ref="D16" r:id="rId5" display="file:///schedule/03-week.qmd" xr:uid="{CD8B4135-BD6A-6341-B02B-633CCAEBA13F}"/>
+    <hyperlink ref="D13" r:id="rId6" display="file:///schedule/03-week.qmd" xr:uid="{9E0806AD-7596-9849-BDFF-26E0E1CD7D6B}"/>
+    <hyperlink ref="D11" r:id="rId7" display="file:///schedule/03-week.qmd" xr:uid="{8359F19A-CDD4-414C-A703-84CFDB7E9BB4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
